--- a/F_Meta_Analysis_WholeBrain/figure_results/TD_Full_pain_g_pperm05.xlsx
+++ b/F_Meta_Analysis_WholeBrain/figure_results/TD_Full_pain_g_pperm05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="229">
   <si>
     <t>No</t>
   </si>
@@ -23,91 +23,94 @@
     <t>labels</t>
   </si>
   <si>
-    <t>Right Cerebrum.Frontal Lobe.Sub-Gyral.White Matter.* (12.1%), Right Cerebrum.Sub-lobar.Insula.White Matter.* (9.1%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Sub-lobar.Insula.White Matter.* (10.4%), Left Cerebrum.Frontal Lobe.Sub-Gyral.White Matter.* (10%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 24 (6.6%), Right Cerebrum.Limbic Lobe.Cingulate Gyrus.White Matter.* (5.9%)</t>
-  </si>
-  <si>
-    <t>Left Cerebellum.Posterior Lobe.Cerebellar Tonsil.Gray Matter.* (38.7%), Left Cerebellum.Posterior Lobe.Pyramis.Gray Matter.* (18.4%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 23 (12.6%), Right Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 23 (12.6%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Sub-lobar.Caudate.Gray Matter.Caudate Body (25.3%), Right Cerebrum.Sub-lobar.Extra-Nuclear.White Matter.* (22.7%)</t>
-  </si>
-  <si>
-    <t>Right Cerebellum.Posterior Lobe.Cerebellar Tonsil.Gray Matter.* (68.1%), Right Cerebellum.Posterior Lobe.Pyramis.Gray Matter.* (19.3%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Sub-lobar.Extra-Nuclear.White Matter.* (33.3%), Left Cerebrum.Sub-lobar.Lentiform Nucleus.Gray Matter.Lateral Globus Pallidus (20%)</t>
-  </si>
-  <si>
-    <t>Right Brainstem.Midbrain.*.*.* (62.9%), Right Brainstem.Midbrain.*.Gray Matter.Substania Nigra (16.2%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Parietal Lobe.Precuneus.Gray Matter.Brodmann area 7 (31.1%), Right Cerebrum.Occipital Lobe.Cuneus.Gray Matter.Brodmann area 7 (23.3%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Frontal Lobe.Middle Frontal Gyrus.White Matter.* (88.9%), Right Cerebrum.Frontal Lobe.Middle Frontal Gyrus.Gray Matter.Brodmann area 8 (11.1%)</t>
-  </si>
-  <si>
-    <t>Right Cerebellum.Posterior Lobe.Pyramis.Gray Matter.* (50%), *.*.*.*.* (25%)</t>
+    <t>Right Cerebrum.Frontal Lobe.Sub-Gyral.White Matter.* (12.1%), Right Cerebrum.Sub-lobar.Insula.White Matter.* (9%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Sub-lobar.Insula.White Matter.* (10.3%), Left Cerebrum.Frontal Lobe.Sub-Gyral.White Matter.* (10.1%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 24 (6.5%), Right Cerebrum.Limbic Lobe.Cingulate Gyrus.White Matter.* (5.8%)</t>
+  </si>
+  <si>
+    <t>Left Cerebellum.Posterior Lobe.Cerebellar Tonsil.Gray Matter.* (37.9%), Left Cerebellum.Posterior Lobe.Pyramis.Gray Matter.* (18.5%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 23 (12.8%), Left Cerebrum.Sub-lobar.Extra-Nuclear.White Matter.Corpus Callosum (12.3%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Sub-lobar.Caudate.Gray Matter.Caudate Body (26.2%), Right Cerebrum.Sub-lobar.Extra-Nuclear.White Matter.* (23.5%)</t>
+  </si>
+  <si>
+    <t>Right Cerebellum.Posterior Lobe.Cerebellar Tonsil.Gray Matter.* (65%), Right Cerebellum.Posterior Lobe.Pyramis.Gray Matter.* (20.1%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Sub-lobar.Extra-Nuclear.White Matter.* (32.5%), Left Cerebrum.Sub-lobar.Lentiform Nucleus.Gray Matter.Lateral Globus Pallidus (18.9%)</t>
+  </si>
+  <si>
+    <t>Right Brainstem.Midbrain.*.*.* (63.8%), Right Brainstem.Midbrain.*.Gray Matter.Substania Nigra (14.7%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Parietal Lobe.Precuneus.Gray Matter.Brodmann area 7 (30.2%), Right Cerebrum.Occipital Lobe.Cuneus.Gray Matter.Brodmann area 7 (24%)</t>
   </si>
   <si>
     <t>Left Cerebellum.Anterior Lobe.Culmen.Gray Matter.* (100%)</t>
   </si>
   <si>
-    <t>Left Cerebellum.Posterior Lobe.Pyramis.Gray Matter.* (100%)</t>
+    <t>Right Cerebellum.Posterior Lobe.Pyramis.Gray Matter.* (44.4%), *.*.*.*.* (22.2%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Parietal Lobe.Precuneus.Gray Matter.Brodmann area 7 (100%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.Ventral Lateral Nucleus (100%)</t>
   </si>
   <si>
     <t>Right Cerebellum.Posterior Lobe.Pyramis.Gray Matter.* (100%)</t>
   </si>
   <si>
-    <t>Left Cerebrum.Limbic Lobe.Posterior Cingulate.White Matter.* (10.7%), Left Cerebrum.Parietal Lobe.Precuneus.Gray Matter.Brodmann area 31 (7.1%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Frontal Lobe.Medial Frontal Gyrus.Gray Matter.Brodmann area 10 (12.3%), Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.White Matter.* (11.6%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Temporal Lobe.Middle Temporal Gyrus.White Matter.* (63.7%), Right Cerebrum.Temporal Lobe.Middle Temporal Gyrus.Gray Matter.Brodmann area 39 (9.4%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Temporal Lobe.Middle Temporal Gyrus.White Matter.* (65.9%), Left Cerebrum.Occipital Lobe.Superior Occipital Gyrus.White Matter.* (7.3%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Limbic Lobe.Parahippocampal Gyrus.Gray Matter.Brodmann area 36 (29.7%), Left Cerebrum.Limbic Lobe.Parahippocampal Gyrus.White Matter.* (18.1%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Limbic Lobe.Parahippocampal Gyrus.Gray Matter.Brodmann area 36 (32.1%), Right Cerebrum.Limbic Lobe.Parahippocampal Gyrus.White Matter.* (14.5%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Occipital Lobe.Middle Occipital Gyrus.Gray Matter.Brodmann area 18 (25.3%), Right Cerebrum.Occipital Lobe.Sub-Gyral.White Matter.* (21.7%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Occipital Lobe.Inferior Occipital Gyrus.White Matter.* (57.7%), Left Cerebrum.Occipital Lobe.Inferior Occipital Gyrus.Gray Matter.Brodmann area 18 (23.9%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Parietal Lobe.Postcentral Gyrus.White Matter.* (76.1%), Left Cerebrum.Parietal Lobe.Postcentral Gyrus.Gray Matter.Brodmann area 2 (13%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Frontal Lobe.Middle Frontal Gyrus.Gray Matter.Brodmann area 8 (46.5%), Right Cerebrum.Frontal Lobe.Superior Frontal Gyrus.Gray Matter.Brodmann area 8 (41.9%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Frontal Lobe.Middle Frontal Gyrus.Gray Matter.Brodmann area 8 (72.2%), Left Cerebrum.Frontal Lobe.Middle Frontal Gyrus.White Matter.* (22.2%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Frontal Lobe.Precentral Gyrus.White Matter.* (93.3%), Left Cerebrum.Frontal Lobe.Precentral Gyrus.Gray Matter.Brodmann area 4 (6.7%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Temporal Lobe.Inferior Temporal Gyrus.Gray Matter.Brodmann area 21 (30%), Left Cerebrum.Temporal Lobe.Middle Temporal Gyrus.Gray Matter.Brodmann area 21 (20%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Frontal Lobe.Superior Frontal Gyrus.Gray Matter.Brodmann area 9 (87.5%), Left Cerebrum.Frontal Lobe.Medial Frontal Gyrus.*.* (12.5%)</t>
+    <t>Left Cerebrum.Sub-lobar.Extra-Nuclear.White Matter.* (100%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Limbic Lobe.Posterior Cingulate.White Matter.* (11%), Left Cerebrum.Parietal Lobe.Precuneus.Gray Matter.Brodmann area 31 (6.9%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Frontal Lobe.Medial Frontal Gyrus.Gray Matter.Brodmann area 10 (12.1%), Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.White Matter.* (11.6%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Temporal Lobe.Middle Temporal Gyrus.White Matter.* (63.1%), Right Cerebrum.Temporal Lobe.Middle Temporal Gyrus.Gray Matter.Brodmann area 39 (9.5%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Temporal Lobe.Middle Temporal Gyrus.White Matter.* (65.6%), Left Cerebrum.Occipital Lobe.Superior Occipital Gyrus.White Matter.* (6.9%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Limbic Lobe.Parahippocampal Gyrus.Gray Matter.Brodmann area 36 (29.5%), Left Cerebrum.Limbic Lobe.Parahippocampal Gyrus.White Matter.* (17.9%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Limbic Lobe.Parahippocampal Gyrus.Gray Matter.Brodmann area 36 (30.8%), Right Cerebrum.Limbic Lobe.Parahippocampal Gyrus.White Matter.* (15.1%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Occipital Lobe.Middle Occipital Gyrus.Gray Matter.Brodmann area 18 (23.8%), Right Cerebrum.Occipital Lobe.Sub-Gyral.White Matter.* (21.8%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Occipital Lobe.Inferior Occipital Gyrus.White Matter.* (55%), Left Cerebrum.Occipital Lobe.Inferior Occipital Gyrus.Gray Matter.Brodmann area 18 (25%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Parietal Lobe.Postcentral Gyrus.White Matter.* (75%), Left Cerebrum.Parietal Lobe.Postcentral Gyrus.Gray Matter.Brodmann area 2 (13.5%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Frontal Lobe.Superior Frontal Gyrus.Gray Matter.Brodmann area 8 (43.8%), Right Cerebrum.Frontal Lobe.Middle Frontal Gyrus.Gray Matter.Brodmann area 8 (41.7%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Frontal Lobe.Middle Frontal Gyrus.Gray Matter.Brodmann area 8 (66.7%), Left Cerebrum.Frontal Lobe.Middle Frontal Gyrus.White Matter.* (25%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Temporal Lobe.Middle Temporal Gyrus.Gray Matter.Brodmann area 21 (33.3%), Left Cerebrum.Temporal Lobe.Inferior Temporal Gyrus.Gray Matter.Brodmann area 21 (22.2%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Frontal Lobe.Precentral Gyrus.White Matter.* (94.1%), Left Cerebrum.Frontal Lobe.Precentral Gyrus.Gray Matter.Brodmann area 4 (5.9%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Frontal Lobe.Superior Frontal Gyrus.Gray Matter.Brodmann area 9 (58.3%), Left Cerebrum.Frontal Lobe.Medial Frontal Gyrus.*.* (25%)</t>
   </si>
   <si>
     <t>X</t>
@@ -143,199 +146,202 @@
     <t>12</t>
   </si>
   <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>-58</t>
+  </si>
+  <si>
+    <t>-60</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>-66</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>-70</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>-84</t>
+  </si>
+  <si>
+    <t>-80</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>-90</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Voxels</t>
+  </si>
+  <si>
+    <t>11451</t>
+  </si>
+  <si>
+    <t>8394</t>
+  </si>
+  <si>
+    <t>3291</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>-22</t>
-  </si>
-  <si>
-    <t>-60</t>
-  </si>
-  <si>
-    <t>-58</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>-66</t>
-  </si>
-  <si>
-    <t>-28</t>
-  </si>
-  <si>
-    <t>-68</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>-70</t>
-  </si>
-  <si>
-    <t>-86</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
-    <t>-78</t>
-  </si>
-  <si>
-    <t>-80</t>
-  </si>
-  <si>
-    <t>-90</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>-34</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Voxels</t>
-  </si>
-  <si>
-    <t>11241</t>
-  </si>
-  <si>
-    <t>8241</t>
-  </si>
-  <si>
-    <t>3164</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1135</t>
-  </si>
-  <si>
-    <t>965</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>n</t>
@@ -356,15 +362,15 @@
     <t>600</t>
   </si>
   <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>550</t>
+    <t>580</t>
   </si>
   <si>
     <t>553</t>
   </si>
   <si>
+    <t>599</t>
+  </si>
+  <si>
     <t>602</t>
   </si>
   <si>
@@ -374,67 +380,82 @@
     <t>592</t>
   </si>
   <si>
-    <t>580</t>
+    <t>591</t>
   </si>
   <si>
     <t>587</t>
   </si>
   <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>Isq</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>70%</t>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.36</t>
   </si>
   <si>
     <t>g</t>
@@ -467,24 +488,18 @@
     <t>0.68</t>
   </si>
   <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.44</t>
+    <t>0.72</t>
   </si>
   <si>
     <t>0.40</t>
   </si>
   <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
     <t>-0.73</t>
   </si>
   <si>
@@ -536,21 +551,21 @@
     <t>0.13</t>
   </si>
   <si>
+    <t>0.12</t>
+  </si>
+  <si>
     <t>0.14</t>
   </si>
   <si>
+    <t>0.09</t>
+  </si>
+  <si>
     <t>0.11</t>
   </si>
   <si>
-    <t>0.12</t>
-  </si>
-  <si>
     <t>0.10</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -584,21 +599,21 @@
     <t>5.24</t>
   </si>
   <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
     <t>4.38</t>
   </si>
   <si>
-    <t>4.40</t>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>4.16</t>
   </si>
   <si>
     <t>4.47</t>
   </si>
   <si>
+    <t>4.19</t>
+  </si>
+  <si>
     <t>-6.62</t>
   </si>
   <si>
@@ -632,61 +647,61 @@
     <t>-4.25</t>
   </si>
   <si>
+    <t>-4.18</t>
+  </si>
+  <si>
     <t>-4.66</t>
   </si>
   <si>
-    <t>-4.23</t>
+    <t>-4.19</t>
   </si>
   <si>
     <t>p05perm</t>
   </si>
   <si>
-    <t>&lt;.001</t>
+    <t>.000</t>
+  </si>
+  <si>
+    <t>.001</t>
+  </si>
+  <si>
+    <t>.006</t>
+  </si>
+  <si>
+    <t>.033</t>
+  </si>
+  <si>
+    <t>.025</t>
+  </si>
+  <si>
+    <t>.049</t>
+  </si>
+  <si>
+    <t>.050</t>
+  </si>
+  <si>
+    <t>.016</t>
+  </si>
+  <si>
+    <t>.047</t>
   </si>
   <si>
     <t>.002</t>
   </si>
   <si>
-    <t>.001</t>
+    <t>.004</t>
   </si>
   <si>
     <t>.008</t>
   </si>
   <si>
-    <t>.003</t>
-  </si>
-  <si>
-    <t>.035</t>
-  </si>
-  <si>
-    <t>.042</t>
-  </si>
-  <si>
-    <t>.013</t>
-  </si>
-  <si>
-    <t>.028</t>
-  </si>
-  <si>
-    <t>.025</t>
-  </si>
-  <si>
-    <t>.017</t>
-  </si>
-  <si>
-    <t>.005</t>
+    <t>.037</t>
   </si>
   <si>
     <t>.010</t>
   </si>
   <si>
-    <t>.041</t>
-  </si>
-  <si>
-    <t>.012</t>
-  </si>
-  <si>
-    <t>.044</t>
+    <t>.007</t>
   </si>
 </sst>
 </file>
@@ -734,17 +749,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="true"/>
-    <col min="2" max="2" width="172.7109375" customWidth="true"/>
+    <col min="2" max="2" width="176.7109375" customWidth="true"/>
     <col min="3" max="3" width="3.7109375" customWidth="true"/>
     <col min="4" max="4" width="3.7109375" customWidth="true"/>
     <col min="5" max="5" width="3.7109375" customWidth="true"/>
     <col min="6" max="6" width="6.7109375" customWidth="true"/>
     <col min="7" max="7" width="3.7109375" customWidth="true"/>
-    <col min="8" max="8" width="3.7109375" customWidth="true"/>
+    <col min="8" max="8" width="4.7109375" customWidth="true"/>
     <col min="9" max="9" width="5.7109375" customWidth="true"/>
     <col min="10" max="10" width="4.7109375" customWidth="true"/>
     <col min="11" max="11" width="5.7109375" customWidth="true"/>
@@ -759,34 +774,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
@@ -797,34 +812,34 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
@@ -835,34 +850,34 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4">
@@ -873,34 +888,34 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5">
@@ -911,34 +926,34 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
@@ -949,34 +964,34 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7">
@@ -987,34 +1002,34 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
@@ -1025,34 +1040,34 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
@@ -1063,34 +1078,34 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10">
@@ -1101,34 +1116,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11">
@@ -1139,34 +1154,34 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12">
@@ -1177,34 +1192,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13">
@@ -1215,34 +1230,34 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14">
@@ -1253,34 +1268,34 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15">
@@ -1291,34 +1306,34 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16">
@@ -1335,560 +1350,636 @@
         <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
